--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google Drive\RA\Ruhl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kruhl\GitHub\Repec-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,9 +80,6 @@
     <t>somewhere3</t>
   </si>
   <si>
-    <t>somewhere4</t>
-  </si>
-  <si>
     <t>somewhere5</t>
   </si>
   <si>
@@ -92,25 +89,36 @@
   <si>
     <t>Joyee Deb; Julio Gonzalez-Diaz; Jerome Renault</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.kimjruhl.com/storage/bea_census_latest.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -131,14 +139,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,7 +165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -416,36 +427,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -453,90 +468,93 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>2013</v>
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
+        <v>2013</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>2014</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
+        <v>2013</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>2013</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>2014</v>
-      </c>
-      <c r="G5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>2013</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2014</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kruhl\GitHub\Repec-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google Drive\RA\Ruhl\Repec-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,17 +98,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,7 +117,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,8 +148,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,20 +430,20 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -483,7 +483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -500,7 +500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -517,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -534,7 +534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2014</v>
       </c>

--- a/sample_list.xlsx
+++ b/sample_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google Drive\RA\Ruhl\Repec-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwu\Google Drive\RA\Ruhl\Repec-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,12 +71,6 @@
     <t>David Backus; Mikhail Chernov; Stanley Zin</t>
   </si>
   <si>
-    <t>somewhere1</t>
-  </si>
-  <si>
-    <t>somewhere2</t>
-  </si>
-  <si>
     <t>somewhere3</t>
   </si>
   <si>
@@ -87,28 +81,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Joyee Deb; Julio Gonzalez-Diaz; Jerome Renault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.kimjruhl.com/storage/bea_census_latest.pdf</t>
+  </si>
+  <si>
+    <t>http://google.com</t>
+  </si>
+  <si>
+    <t>http://stern.nyu.edu</t>
+  </si>
+  <si>
+    <t>Joyee Deb; González Díaz; Jérôme Renault</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,7 +116,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,8 +147,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -165,7 +164,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -429,23 +428,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -466,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -480,10 +479,10 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -496,11 +495,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -514,10 +513,10 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -528,13 +527,13 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -548,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +555,11 @@
     <sortCondition ref="A2:A6"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>